--- a/DDF/Phase2/TY_05/Applying_Scheme.xlsx
+++ b/DDF/Phase2/TY_05/Applying_Scheme.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Bimbo Project Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Music\ApplyingScheme\Bimbo Mobile-TY (4)\Bimbo Mobile-TY\DDF\Phase2\TY_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="4190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>TC_09</t>
   </si>
@@ -212,10 +212,13 @@
     <t>Total Paid : 5.34</t>
   </si>
   <si>
-    <t>Balance : 0 of 10.68</t>
-  </si>
-  <si>
-    <t>Total Paid : 10.68</t>
+    <t>Total Paid : 5.16</t>
+  </si>
+  <si>
+    <t>Balance : 0 of 12.14</t>
+  </si>
+  <si>
+    <t>Invoice Split-2</t>
   </si>
 </sst>
 </file>
@@ -542,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="86" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="86" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -756,13 +759,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>5.34</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -828,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -840,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.34</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -916,6 +919,9 @@
       <c r="E17">
         <v>1</v>
       </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -928,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -962,10 +968,10 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1053,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E25">
         <v>2</v>
